--- a/Instances/G0044214_NonStationary_b2_fe25_en_rk25_ll2_l20_HTrue_c10.xlsx
+++ b/Instances/G0044214_NonStationary_b2_fe25_en_rk25_ll2_l20_HTrue_c10.xlsx
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>13.73045191168785</v>
+        <v>13.30617733001709</v>
       </c>
       <c r="I2" t="n">
         <v>80</v>
@@ -1018,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>4.110052764415741</v>
+        <v>5.487825632095337</v>
       </c>
       <c r="I3" t="n">
         <v>140</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>6.27980500459671</v>
+        <v>7.675527906417846</v>
       </c>
       <c r="I4" t="n">
         <v>120</v>
@@ -1082,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>16.30783957242966</v>
+        <v>15.38346657752991</v>
       </c>
       <c r="I5" t="n">
         <v>60</v>
@@ -1114,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E12" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E13" t="n">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D14" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E15" t="n">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1847,16 +1847,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1874,41 +1874,6 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>86</v>
-      </c>
-      <c r="C17" t="n">
-        <v>28</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>116</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1923,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2108,34 +2073,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2143,16 +2108,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>22.875</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>8.0625</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>7.875</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>15.9375</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2178,16 +2143,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17.625</v>
+        <v>15.46875</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0625</v>
+        <v>12.890625</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>8.90625</v>
       </c>
       <c r="E8" t="n">
-        <v>16.3125</v>
+        <v>33.046875</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2213,16 +2178,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.21875</v>
+        <v>24.85546875</v>
       </c>
       <c r="C9" t="n">
-        <v>2.8125</v>
+        <v>5.90625</v>
       </c>
       <c r="D9" t="n">
-        <v>4.21875</v>
+        <v>5.66015625</v>
       </c>
       <c r="E9" t="n">
-        <v>26.25</v>
+        <v>23.37890625</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2248,16 +2213,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34.453125</v>
+        <v>16.93359375</v>
       </c>
       <c r="C10" t="n">
-        <v>4.67578125</v>
+        <v>7.7197265625</v>
       </c>
       <c r="D10" t="n">
-        <v>10.58203125</v>
+        <v>10.2099609375</v>
       </c>
       <c r="E10" t="n">
-        <v>12.3046875</v>
+        <v>19.6728515625</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2283,16 +2248,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6650390625</v>
+        <v>33.966796875</v>
       </c>
       <c r="C11" t="n">
-        <v>7.96875</v>
+        <v>8.9912109375</v>
       </c>
       <c r="D11" t="n">
-        <v>14.6923828125</v>
+        <v>14.9853515625</v>
       </c>
       <c r="E11" t="n">
-        <v>37.1044921875</v>
+        <v>25.974609375</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2318,16 +2283,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17.732666015625</v>
+        <v>24.4940185546875</v>
       </c>
       <c r="C12" t="n">
-        <v>5.994140625</v>
+        <v>9.74761962890625</v>
       </c>
       <c r="D12" t="n">
-        <v>13.237060546875</v>
+        <v>11.9970703125</v>
       </c>
       <c r="E12" t="n">
-        <v>32.9677734375</v>
+        <v>31.24237060546875</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2353,16 +2318,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.74468994140625</v>
+        <v>11.999267578125</v>
       </c>
       <c r="C13" t="n">
-        <v>7.74810791015625</v>
+        <v>5.749649047851562</v>
       </c>
       <c r="D13" t="n">
-        <v>9.99755859375</v>
+        <v>10.49935913085938</v>
       </c>
       <c r="E13" t="n">
-        <v>53.23699951171875</v>
+        <v>11.24931335449219</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2388,16 +2353,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>26.24839782714844</v>
+        <v>10.74983596801758</v>
       </c>
       <c r="C14" t="n">
-        <v>13.24919128417969</v>
+        <v>11.49982452392578</v>
       </c>
       <c r="D14" t="n">
-        <v>11.74928283691406</v>
+        <v>9.249858856201172</v>
       </c>
       <c r="E14" t="n">
-        <v>8.499481201171875</v>
+        <v>17.74972915649414</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2423,16 +2388,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.2496452331543</v>
+        <v>12.2499532699585</v>
       </c>
       <c r="C15" t="n">
-        <v>6.749897003173828</v>
+        <v>3.49998664855957</v>
       </c>
       <c r="D15" t="n">
-        <v>8.249874114990234</v>
+        <v>18.99992752075195</v>
       </c>
       <c r="E15" t="n">
-        <v>26.24959945678711</v>
+        <v>37.24985790252686</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2458,16 +2423,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>16.24993801116943</v>
+        <v>25.99997520446777</v>
       </c>
       <c r="C16" t="n">
-        <v>4.499982833862305</v>
+        <v>8.24999213218689</v>
       </c>
       <c r="D16" t="n">
-        <v>15.74993991851807</v>
+        <v>16.7499840259552</v>
       </c>
       <c r="E16" t="n">
-        <v>18.99992752075195</v>
+        <v>15.24998545646667</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2485,41 +2450,6 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>21.4999794960022</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.999993324279785</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>28.99997234344482</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2690</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2560,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3390</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2568,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5280</v>
+        <v>5480</v>
       </c>
     </row>
   </sheetData>
